--- a/quantTrades.xlsx
+++ b/quantTrades.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15600" windowWidth="15975" xWindow="22425" yWindow="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15600" windowWidth="15980" xWindow="17620" yWindow="460"/>
   </bookViews>
   <sheets>
     <sheet name="Trades" sheetId="1" state="visible" r:id="rId1"/>
@@ -393,20 +393,20 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD8"/>
+      <selection activeCell="A2" sqref="A2:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="18.28515625"/>
-    <col customWidth="1" max="3" min="2" width="11.85546875"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="18.33203125"/>
+    <col customWidth="1" max="3" min="2" width="11.83203125"/>
     <col bestFit="1" customWidth="1" max="4" min="4" width="12"/>
     <col customWidth="1" max="5" min="5" width="14"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" width="18.28515625"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" width="11.28515625"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" width="18.33203125"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="11.33203125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -449,7 +449,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>63386fe43e7e494b</t>
+          <t>5dc9683b9de74a49</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -461,7 +461,7 @@
         <v>100</v>
       </c>
       <c r="D2" t="n">
-        <v>44.7400016784668</v>
+        <v>57</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -469,7 +469,7 @@
         </is>
       </c>
       <c r="F2" s="1" t="n">
-        <v>44032.46579765889</v>
+        <v>44038.72406441829</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -480,7 +480,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>63386fe43e7e494b</t>
+          <t>5dc9683b9de74a49</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -492,7 +492,7 @@
         <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>43.7599983215332</v>
+        <v>55.5</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="F3" s="1" t="n">
-        <v>44032.46579789057</v>
+        <v>44038.72406492215</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -511,7 +511,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>479d65c762d34d20</t>
+          <t>8adf9ac4da4b4744</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -523,7 +523,7 @@
         <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>44.61999893188477</v>
+        <v>48.84999847412109</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="F4" s="1" t="n">
-        <v>44032.46579856248</v>
+        <v>44038.72406635229</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>479d65c762d34d20</t>
+          <t>8adf9ac4da4b4744</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -554,7 +554,7 @@
         <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>43.59000015258789</v>
+        <v>47.72999954223633</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>44032.46579880574</v>
+        <v>44038.72406698627</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -573,7 +573,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>750bb7d7d0ce404d</t>
+          <t>339d3d2a6ba0478d</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -585,7 +585,7 @@
         <v>100</v>
       </c>
       <c r="D6" t="n">
-        <v>46.66999816894531</v>
+        <v>57</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -593,7 +593,7 @@
         </is>
       </c>
       <c r="F6" s="1" t="n">
-        <v>44032.46579924595</v>
+        <v>44039.79606546487</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -604,7 +604,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>750bb7d7d0ce404d</t>
+          <t>339d3d2a6ba0478d</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -616,7 +616,7 @@
         <v>100</v>
       </c>
       <c r="D7" t="n">
-        <v>48.68000030517578</v>
+        <v>55.5</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -624,18 +624,18 @@
         </is>
       </c>
       <c r="F7" s="1" t="n">
-        <v>44032.4657995819</v>
+        <v>44039.79606652386</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Stop Gain</t>
+          <t>Stop Loss</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>871879f94c474193</t>
+          <t>d9f51a35d7d54b3e</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -647,7 +647,7 @@
         <v>100</v>
       </c>
       <c r="D8" t="n">
-        <v>51.11999893188477</v>
+        <v>48.84999847412109</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="F8" s="1" t="n">
-        <v>44032.46580033486</v>
+        <v>44039.79607028758</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>871879f94c474193</t>
+          <t>d9f51a35d7d54b3e</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,7 +678,7 @@
         <v>100</v>
       </c>
       <c r="D9" t="n">
-        <v>53.36000061035156</v>
+        <v>47.72999954223633</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -686,18 +686,18 @@
         </is>
       </c>
       <c r="F9" s="1" t="n">
-        <v>44032.46580069399</v>
+        <v>44039.79607079568</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Stop Gain</t>
+          <t>Stop Loss</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ff61fa63d2bd4d72</t>
+          <t>73a6c4bc99ee4a2d</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -709,7 +709,7 @@
         <v>100</v>
       </c>
       <c r="D10" t="n">
-        <v>55.11000061035156</v>
+        <v>57</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="F10" s="1" t="n">
-        <v>44032.46580137747</v>
+        <v>44039.7961017046</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -728,7 +728,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ff61fa63d2bd4d72</t>
+          <t>73a6c4bc99ee4a2d</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -740,7 +740,7 @@
         <v>100</v>
       </c>
       <c r="D11" t="n">
-        <v>54.61000061035156</v>
+        <v>55.5</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -748,18 +748,18 @@
         </is>
       </c>
       <c r="F11" s="1" t="n">
-        <v>44032.46580289504</v>
+        <v>44039.79610341882</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>SuperTrend</t>
+          <t>Stop Loss</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>638eb6864c314474</t>
+          <t>a4ac3955b86f4496</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -771,7 +771,7 @@
         <v>100</v>
       </c>
       <c r="D12" t="n">
-        <v>56.29000091552734</v>
+        <v>48.84999847412109</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -779,7 +779,7 @@
         </is>
       </c>
       <c r="F12" s="1" t="n">
-        <v>44032.46580326573</v>
+        <v>44039.79610511259</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>638eb6864c314474</t>
+          <t>a4ac3955b86f4496</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -802,7 +802,7 @@
         <v>100</v>
       </c>
       <c r="D13" t="n">
-        <v>59.02000045776367</v>
+        <v>47.72999954223633</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -810,11 +810,259 @@
         </is>
       </c>
       <c r="F13" s="1" t="n">
-        <v>44032.4658039608</v>
+        <v>44039.79610564243</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Stop Gain</t>
+          <t>Stop Loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>0edaa65b9bdc4aca</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>VALE3.SA</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>100</v>
+      </c>
+      <c r="D14" t="n">
+        <v>57</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>44039.79614799889</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>SuperTrend</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>0edaa65b9bdc4aca</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>VALE3.SA</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>100</v>
+      </c>
+      <c r="D15" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>44039.79614890242</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Stop Loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2d52290afcc84453</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>VALE3.SA</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>100</v>
+      </c>
+      <c r="D16" t="n">
+        <v>48.84999847412109</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>44039.7961506373</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>SuperTrend</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2d52290afcc84453</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>VALE3.SA</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>100</v>
+      </c>
+      <c r="D17" t="n">
+        <v>47.72999954223633</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>44039.79615153925</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Stop Loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>f08968a2bdc04fe0</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>VALE3.SA</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>100</v>
+      </c>
+      <c r="D18" t="n">
+        <v>57</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>44039.79625110068</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>SuperTrend</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>f08968a2bdc04fe0</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>VALE3.SA</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>100</v>
+      </c>
+      <c r="D19" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>44039.79625170148</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Stop Loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>b8379e44ce9e4a5b</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>VALE3.SA</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>100</v>
+      </c>
+      <c r="D20" t="n">
+        <v>48.84999847412109</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>44039.79625325501</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>SuperTrend</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>b8379e44ce9e4a5b</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>VALE3.SA</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>100</v>
+      </c>
+      <c r="D21" t="n">
+        <v>47.72999954223633</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>44039.79625384018</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Stop Loss</t>
         </is>
       </c>
     </row>

--- a/quantTrades.xlsx
+++ b/quantTrades.xlsx
@@ -393,10 +393,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD15"/>
+      <selection activeCell="A2" sqref="A2:XFD81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -449,7 +449,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>5dc9683b9de74a49</t>
+          <t>8180c1fc7c2b4e53</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -461,7 +461,7 @@
         <v>100</v>
       </c>
       <c r="D2" t="n">
-        <v>57</v>
+        <v>41.5099983215332</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -469,7 +469,7 @@
         </is>
       </c>
       <c r="F2" s="1" t="n">
-        <v>44038.72406441829</v>
+        <v>44114.71058773503</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -480,7 +480,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>5dc9683b9de74a49</t>
+          <t>8180c1fc7c2b4e53</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -492,7 +492,7 @@
         <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>55.5</v>
+        <v>38.65000152587891</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -500,18 +500,18 @@
         </is>
       </c>
       <c r="F3" s="1" t="n">
-        <v>44038.72406492215</v>
+        <v>44114.71058799334</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Stop Loss</t>
+          <t>SuperTrend</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>8adf9ac4da4b4744</t>
+          <t>b06cc5e336f14fd1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -523,7 +523,7 @@
         <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>48.84999847412109</v>
+        <v>37.63999938964844</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="F4" s="1" t="n">
-        <v>44038.72406635229</v>
+        <v>44114.71058882428</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>8adf9ac4da4b4744</t>
+          <t>b06cc5e336f14fd1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -554,7 +554,7 @@
         <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>47.72999954223633</v>
+        <v>40.84999847412109</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -562,18 +562,18 @@
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>44038.72406698627</v>
+        <v>44114.71058933528</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Stop Loss</t>
+          <t>SuperTrend</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>339d3d2a6ba0478d</t>
+          <t>dd0505e9357c477b</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -585,7 +585,7 @@
         <v>100</v>
       </c>
       <c r="D6" t="n">
-        <v>57</v>
+        <v>43.22000122070312</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -593,7 +593,7 @@
         </is>
       </c>
       <c r="F6" s="1" t="n">
-        <v>44039.79606546487</v>
+        <v>44114.71058958444</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -604,7 +604,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>339d3d2a6ba0478d</t>
+          <t>dd0505e9357c477b</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -616,7 +616,7 @@
         <v>100</v>
       </c>
       <c r="D7" t="n">
-        <v>55.5</v>
+        <v>43.36999893188477</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -624,18 +624,18 @@
         </is>
       </c>
       <c r="F7" s="1" t="n">
-        <v>44039.79606652386</v>
+        <v>44114.71059023057</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Stop Loss</t>
+          <t>SuperTrend</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>d9f51a35d7d54b3e</t>
+          <t>fe6bfdd03c97437e</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -647,7 +647,7 @@
         <v>100</v>
       </c>
       <c r="D8" t="n">
-        <v>48.84999847412109</v>
+        <v>44.56999969482422</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="F8" s="1" t="n">
-        <v>44039.79607028758</v>
+        <v>44114.7105906067</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>d9f51a35d7d54b3e</t>
+          <t>fe6bfdd03c97437e</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,7 +678,7 @@
         <v>100</v>
       </c>
       <c r="D9" t="n">
-        <v>47.72999954223633</v>
+        <v>44.52999877929688</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -686,18 +686,18 @@
         </is>
       </c>
       <c r="F9" s="1" t="n">
-        <v>44039.79607079568</v>
+        <v>44114.71059133667</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Stop Loss</t>
+          <t>SuperTrend</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>73a6c4bc99ee4a2d</t>
+          <t>3a9b3c6862e14c5c</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -709,7 +709,7 @@
         <v>100</v>
       </c>
       <c r="D10" t="n">
-        <v>57</v>
+        <v>46.72999954223633</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="F10" s="1" t="n">
-        <v>44039.7961017046</v>
+        <v>44114.71059169224</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -728,7 +728,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>73a6c4bc99ee4a2d</t>
+          <t>3a9b3c6862e14c5c</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -740,7 +740,7 @@
         <v>100</v>
       </c>
       <c r="D11" t="n">
-        <v>55.5</v>
+        <v>44.86000061035156</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -748,18 +748,18 @@
         </is>
       </c>
       <c r="F11" s="1" t="n">
-        <v>44039.79610341882</v>
+        <v>44114.71059245807</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Stop Loss</t>
+          <t>SuperTrend</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>a4ac3955b86f4496</t>
+          <t>808c2840b59a4e74</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -779,7 +779,7 @@
         </is>
       </c>
       <c r="F12" s="1" t="n">
-        <v>44039.79610511259</v>
+        <v>44114.71059337844</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>a4ac3955b86f4496</t>
+          <t>808c2840b59a4e74</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -810,18 +810,18 @@
         </is>
       </c>
       <c r="F13" s="1" t="n">
-        <v>44039.79610564243</v>
+        <v>44114.71059397457</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Stop Loss</t>
+          <t>SuperTrend</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0edaa65b9bdc4aca</t>
+          <t>1385b59e769349a2</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -833,7 +833,7 @@
         <v>100</v>
       </c>
       <c r="D14" t="n">
-        <v>57</v>
+        <v>51.2599983215332</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="F14" s="1" t="n">
-        <v>44039.79614799889</v>
+        <v>44114.71059455934</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0edaa65b9bdc4aca</t>
+          <t>1385b59e769349a2</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -864,7 +864,7 @@
         <v>100</v>
       </c>
       <c r="D15" t="n">
-        <v>55.5</v>
+        <v>52.29999923706055</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -872,18 +872,18 @@
         </is>
       </c>
       <c r="F15" s="1" t="n">
-        <v>44039.79614890242</v>
+        <v>44114.71059516617</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Stop Loss</t>
+          <t>SuperTrend</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2d52290afcc84453</t>
+          <t>d74ccd4045c34aea</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -895,7 +895,7 @@
         <v>100</v>
       </c>
       <c r="D16" t="n">
-        <v>48.84999847412109</v>
+        <v>53</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -903,7 +903,7 @@
         </is>
       </c>
       <c r="F16" s="1" t="n">
-        <v>44039.7961506373</v>
+        <v>44114.71059552408</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2d52290afcc84453</t>
+          <t>d74ccd4045c34aea</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -926,7 +926,7 @@
         <v>100</v>
       </c>
       <c r="D17" t="n">
-        <v>47.72999954223633</v>
+        <v>55.65999984741211</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -934,18 +934,18 @@
         </is>
       </c>
       <c r="F17" s="1" t="n">
-        <v>44039.79615153925</v>
+        <v>44114.7105960706</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Stop Loss</t>
+          <t>Stop Gain</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>f08968a2bdc04fe0</t>
+          <t>e40167ef23c64d2c</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -957,7 +957,7 @@
         <v>100</v>
       </c>
       <c r="D18" t="n">
-        <v>57</v>
+        <v>61.36999893188477</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -965,7 +965,7 @@
         </is>
       </c>
       <c r="F18" s="1" t="n">
-        <v>44039.79625110068</v>
+        <v>44114.71059725825</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>f08968a2bdc04fe0</t>
+          <t>e40167ef23c64d2c</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -988,7 +988,7 @@
         <v>100</v>
       </c>
       <c r="D19" t="n">
-        <v>55.5</v>
+        <v>60.45000076293945</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -996,18 +996,18 @@
         </is>
       </c>
       <c r="F19" s="1" t="n">
-        <v>44039.79625170148</v>
+        <v>44114.7105985213</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Stop Loss</t>
+          <t>SuperTrend</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>b8379e44ce9e4a5b</t>
+          <t>0a655168ed7e4600</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1019,7 +1019,7 @@
         <v>100</v>
       </c>
       <c r="D20" t="n">
-        <v>48.84999847412109</v>
+        <v>63.06000137329102</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="F20" s="1" t="n">
-        <v>44039.79625325501</v>
+        <v>44114.71059892229</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>b8379e44ce9e4a5b</t>
+          <t>0a655168ed7e4600</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1050,19 +1050,1538 @@
         <v>100</v>
       </c>
       <c r="D21" t="n">
+        <v>61.61999893188477</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>44114.7105999342</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Stop Loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>0c34be4f5844420e</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>VALE3.SA</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>100</v>
+      </c>
+      <c r="D22" t="n">
+        <v>61.95000076293945</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>44114.71060059311</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>SuperTrend</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>0c34be4f5844420e</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>VALE3.SA</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>100</v>
+      </c>
+      <c r="D23" t="n">
+        <v>60.97000122070312</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>44114.71060132479</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>SuperTrend</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>e530c1d9ee754911</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>VALE3.SA</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>100</v>
+      </c>
+      <c r="D24" t="n">
+        <v>60.16999816894531</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>44114.71060202949</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>SuperTrend</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>f3e9fe9e220c4a5d</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>VALE3.SA</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>100</v>
+      </c>
+      <c r="D25" t="n">
+        <v>41.5099983215332</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>44114.71217288166</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>SuperTrend</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>f3e9fe9e220c4a5d</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>VALE3.SA</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>100</v>
+      </c>
+      <c r="D26" t="n">
+        <v>38.65000152587891</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>44114.71217348112</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>SuperTrend</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>f919ff8089a844fc</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>VALE3.SA</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>100</v>
+      </c>
+      <c r="D27" t="n">
+        <v>37.63999938964844</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>44114.71217382962</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>SuperTrend</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>f919ff8089a844fc</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>VALE3.SA</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>100</v>
+      </c>
+      <c r="D28" t="n">
+        <v>40.84999847412109</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>44114.71217445798</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>SuperTrend</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2f047752d28f4535</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>VALE3.SA</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>100</v>
+      </c>
+      <c r="D29" t="n">
+        <v>43.22000122070312</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>44114.71217515453</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>SuperTrend</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2f047752d28f4535</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>VALE3.SA</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>100</v>
+      </c>
+      <c r="D30" t="n">
+        <v>43.36999893188477</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>44114.71217639907</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>SuperTrend</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>b797ba1e42584747</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>VALE3.SA</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>100</v>
+      </c>
+      <c r="D31" t="n">
+        <v>44.56999969482422</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>44114.71217724911</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>SuperTrend</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>b797ba1e42584747</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>VALE3.SA</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>100</v>
+      </c>
+      <c r="D32" t="n">
+        <v>44.52999877929688</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>44114.71217810937</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>SuperTrend</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>52074d0c0aaf486b</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>VALE3.SA</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>100</v>
+      </c>
+      <c r="D33" t="n">
+        <v>46.72999954223633</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>44114.71217916609</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>SuperTrend</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>52074d0c0aaf486b</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>VALE3.SA</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>100</v>
+      </c>
+      <c r="D34" t="n">
+        <v>44.86000061035156</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>44114.71217994022</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>SuperTrend</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>ebc6a0f42dc04c69</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>VALE3.SA</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>100</v>
+      </c>
+      <c r="D35" t="n">
+        <v>48.84999847412109</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>44114.71218100667</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>SuperTrend</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>ebc6a0f42dc04c69</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>VALE3.SA</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>100</v>
+      </c>
+      <c r="D36" t="n">
         <v>47.72999954223633</v>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="F21" s="1" t="n">
-        <v>44039.79625384018</v>
-      </c>
-      <c r="G21" t="inlineStr">
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>44114.7121814565</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>SuperTrend</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>7c43b4b8a6fd4d4b</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>VALE3.SA</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>100</v>
+      </c>
+      <c r="D37" t="n">
+        <v>51.2599983215332</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>44114.71218212508</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>SuperTrend</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>7c43b4b8a6fd4d4b</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>VALE3.SA</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>100</v>
+      </c>
+      <c r="D38" t="n">
+        <v>52.29999923706055</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>44114.71218268117</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>SuperTrend</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>6d6ee63d7c8e4f14</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>VALE3.SA</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>100</v>
+      </c>
+      <c r="D39" t="n">
+        <v>53</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F39" s="1" t="n">
+        <v>44114.71218352053</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>SuperTrend</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>6d6ee63d7c8e4f14</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>VALE3.SA</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>100</v>
+      </c>
+      <c r="D40" t="n">
+        <v>55.65999984741211</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="F40" s="1" t="n">
+        <v>44114.71218438119</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Stop Gain</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>997b2625c4db4597</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>VALE3.SA</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>100</v>
+      </c>
+      <c r="D41" t="n">
+        <v>61.36999893188477</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F41" s="1" t="n">
+        <v>44114.71218503619</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>SuperTrend</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>997b2625c4db4597</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>VALE3.SA</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>100</v>
+      </c>
+      <c r="D42" t="n">
+        <v>60.45000076293945</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="F42" s="1" t="n">
+        <v>44114.71218695342</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>SuperTrend</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>e4546bc10cd54e7f</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>VALE3.SA</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>100</v>
+      </c>
+      <c r="D43" t="n">
+        <v>63.06000137329102</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F43" s="1" t="n">
+        <v>44114.71218792358</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>SuperTrend</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>e4546bc10cd54e7f</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>VALE3.SA</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>100</v>
+      </c>
+      <c r="D44" t="n">
+        <v>61.61999893188477</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="F44" s="1" t="n">
+        <v>44114.71218883649</v>
+      </c>
+      <c r="G44" t="inlineStr">
         <is>
           <t>Stop Loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>e58800a21fa24a73</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>VALE3.SA</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>100</v>
+      </c>
+      <c r="D45" t="n">
+        <v>61.95000076293945</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F45" s="1" t="n">
+        <v>44114.71218972391</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>SuperTrend</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>e58800a21fa24a73</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>VALE3.SA</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>100</v>
+      </c>
+      <c r="D46" t="n">
+        <v>60.97000122070312</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="F46" s="1" t="n">
+        <v>44114.71219053536</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>SuperTrend</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>e9910295f08040bd</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>VALE3.SA</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>100</v>
+      </c>
+      <c r="D47" t="n">
+        <v>60.16999816894531</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F47" s="1" t="n">
+        <v>44114.71219149429</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>SuperTrend</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>9e0d9157100e495f</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>VALE3.SA</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>100</v>
+      </c>
+      <c r="D48" t="n">
+        <v>41.5099983215332</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F48" s="1" t="n">
+        <v>44114.71300451556</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>SuperTrend</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>9e0d9157100e495f</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>VALE3.SA</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>100</v>
+      </c>
+      <c r="D49" t="n">
+        <v>38.65000152587891</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="F49" s="1" t="n">
+        <v>44114.71300509843</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>SuperTrend</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>20b330659957451a</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>VALE3.SA</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>100</v>
+      </c>
+      <c r="D50" t="n">
+        <v>37.63999938964844</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F50" s="1" t="n">
+        <v>44114.71300566728</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>SuperTrend</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>20b330659957451a</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>VALE3.SA</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>100</v>
+      </c>
+      <c r="D51" t="n">
+        <v>40.84999847412109</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="F51" s="1" t="n">
+        <v>44114.71300629387</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>SuperTrend</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>fdec181389824af1</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>VALE3.SA</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>100</v>
+      </c>
+      <c r="D52" t="n">
+        <v>43.22000122070312</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F52" s="1" t="n">
+        <v>44114.71300705516</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>SuperTrend</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>fdec181389824af1</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>VALE3.SA</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>100</v>
+      </c>
+      <c r="D53" t="n">
+        <v>43.36999893188477</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="F53" s="1" t="n">
+        <v>44114.71300797126</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>SuperTrend</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>8b01449eb73d41c4</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>VALE3.SA</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>100</v>
+      </c>
+      <c r="D54" t="n">
+        <v>44.56999969482422</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F54" s="1" t="n">
+        <v>44114.71300850586</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>SuperTrend</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>8b01449eb73d41c4</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>VALE3.SA</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>100</v>
+      </c>
+      <c r="D55" t="n">
+        <v>44.52999877929688</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="F55" s="1" t="n">
+        <v>44114.71300946145</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>SuperTrend</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>adc192f61a044be8</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>VALE3.SA</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>100</v>
+      </c>
+      <c r="D56" t="n">
+        <v>46.72999954223633</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F56" s="1" t="n">
+        <v>44114.71301031792</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>SuperTrend</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>adc192f61a044be8</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>VALE3.SA</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>100</v>
+      </c>
+      <c r="D57" t="n">
+        <v>44.86000061035156</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="F57" s="1" t="n">
+        <v>44114.71301093662</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>SuperTrend</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>31ad94b813da4a2d</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>VALE3.SA</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>100</v>
+      </c>
+      <c r="D58" t="n">
+        <v>48.84999847412109</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F58" s="1" t="n">
+        <v>44114.71301193661</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>SuperTrend</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>31ad94b813da4a2d</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>VALE3.SA</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>100</v>
+      </c>
+      <c r="D59" t="n">
+        <v>47.72999954223633</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="F59" s="1" t="n">
+        <v>44114.71301265575</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>SuperTrend</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>859cccb3e88648c3</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>VALE3.SA</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>100</v>
+      </c>
+      <c r="D60" t="n">
+        <v>51.2599983215332</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F60" s="1" t="n">
+        <v>44114.71301359759</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>SuperTrend</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>859cccb3e88648c3</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>VALE3.SA</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>100</v>
+      </c>
+      <c r="D61" t="n">
+        <v>52.29999923706055</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="F61" s="1" t="n">
+        <v>44114.7130143828</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>SuperTrend</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>98e730bfc4924116</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>VALE3.SA</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>100</v>
+      </c>
+      <c r="D62" t="n">
+        <v>53</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F62" s="1" t="n">
+        <v>44114.71301514409</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>SuperTrend</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>98e730bfc4924116</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>VALE3.SA</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>100</v>
+      </c>
+      <c r="D63" t="n">
+        <v>55.65999984741211</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="F63" s="1" t="n">
+        <v>44114.71301586432</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Stop Gain</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>f58c0028eae24684</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>VALE3.SA</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>100</v>
+      </c>
+      <c r="D64" t="n">
+        <v>61.36999893188477</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F64" s="1" t="n">
+        <v>44114.71301722299</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>SuperTrend</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>f58c0028eae24684</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>VALE3.SA</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>100</v>
+      </c>
+      <c r="D65" t="n">
+        <v>60.45000076293945</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="F65" s="1" t="n">
+        <v>44114.71301794325</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>SuperTrend</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>6c86db1ef28048c9</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>VALE3.SA</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>100</v>
+      </c>
+      <c r="D66" t="n">
+        <v>63.06000137329102</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F66" s="1" t="n">
+        <v>44114.71301861812</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>SuperTrend</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>6c86db1ef28048c9</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>VALE3.SA</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>100</v>
+      </c>
+      <c r="D67" t="n">
+        <v>61.61999893188477</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="F67" s="1" t="n">
+        <v>44114.71301944878</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Stop Loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>5581facdf5064a83</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>VALE3.SA</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>100</v>
+      </c>
+      <c r="D68" t="n">
+        <v>61.95000076293945</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F68" s="1" t="n">
+        <v>44114.71302014609</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>SuperTrend</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>5581facdf5064a83</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>VALE3.SA</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>100</v>
+      </c>
+      <c r="D69" t="n">
+        <v>60.97000122070312</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="F69" s="1" t="n">
+        <v>44114.71302083629</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>SuperTrend</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2646a7901862426c</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>VALE3.SA</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>100</v>
+      </c>
+      <c r="D70" t="n">
+        <v>60.16999816894531</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="F70" s="1" t="n">
+        <v>44114.71302161478</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>SuperTrend</t>
         </is>
       </c>
     </row>

--- a/quantTrades.xlsx
+++ b/quantTrades.xlsx
@@ -393,10 +393,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD81"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C2" sqref="A2:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -407,6 +407,9 @@
     <col customWidth="1" max="5" min="5" width="14"/>
     <col bestFit="1" customWidth="1" max="6" min="6" width="18.33203125"/>
     <col bestFit="1" customWidth="1" max="7" min="7" width="11.33203125"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" width="12.1640625"/>
+    <col customWidth="1" max="10" min="10" width="11.83203125"/>
+    <col bestFit="1" customWidth="1" max="11" min="11" width="13.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -449,7 +452,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>8180c1fc7c2b4e53</t>
+          <t>e9f9c9a345c14c08</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -458,10 +461,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>3508</v>
       </c>
       <c r="D2" t="n">
-        <v>41.5099983215332</v>
+        <v>57</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -469,7 +472,7 @@
         </is>
       </c>
       <c r="F2" s="1" t="n">
-        <v>44114.71058773503</v>
+        <v>44118.65040196348</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -480,7 +483,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>8180c1fc7c2b4e53</t>
+          <t>e9f9c9a345c14c08</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -489,10 +492,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>7029</v>
       </c>
       <c r="D3" t="n">
-        <v>38.65000152587891</v>
+        <v>56.79999923706055</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -500,7 +503,7 @@
         </is>
       </c>
       <c r="F3" s="1" t="n">
-        <v>44114.71058799334</v>
+        <v>44118.65040232738</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -511,7 +514,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>b06cc5e336f14fd1</t>
+          <t>0a543de06d44447d</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -520,10 +523,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>7669</v>
       </c>
       <c r="D4" t="n">
-        <v>37.63999938964844</v>
+        <v>48.20999908447266</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -531,7 +534,7 @@
         </is>
       </c>
       <c r="F4" s="1" t="n">
-        <v>44114.71058882428</v>
+        <v>44118.65040354264</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -542,7 +545,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>b06cc5e336f14fd1</t>
+          <t>0a543de06d44447d</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +554,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>7616</v>
       </c>
       <c r="D5" t="n">
-        <v>40.84999847412109</v>
+        <v>57.66999816894531</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -562,7 +565,7 @@
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>44114.71058933528</v>
+        <v>44118.65040520835</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -573,7 +576,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>dd0505e9357c477b</t>
+          <t>dac5e83d7ec84bb4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -582,10 +585,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>100</v>
+        <v>3508</v>
       </c>
       <c r="D6" t="n">
-        <v>43.22000122070312</v>
+        <v>57</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -593,7 +596,7 @@
         </is>
       </c>
       <c r="F6" s="1" t="n">
-        <v>44114.71058958444</v>
+        <v>44118.65133882875</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -604,7 +607,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>dd0505e9357c477b</t>
+          <t>dac5e83d7ec84bb4</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -613,10 +616,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>100</v>
+        <v>7029</v>
       </c>
       <c r="D7" t="n">
-        <v>43.36999893188477</v>
+        <v>56.79999923706055</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -624,7 +627,7 @@
         </is>
       </c>
       <c r="F7" s="1" t="n">
-        <v>44114.71059023057</v>
+        <v>44118.6513392419</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -635,7 +638,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>fe6bfdd03c97437e</t>
+          <t>1f09f70b89f7411d</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -644,10 +647,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>100</v>
+        <v>7669</v>
       </c>
       <c r="D8" t="n">
-        <v>44.56999969482422</v>
+        <v>48.20999908447266</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -655,7 +658,7 @@
         </is>
       </c>
       <c r="F8" s="1" t="n">
-        <v>44114.7105906067</v>
+        <v>44118.65134057478</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -666,7 +669,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>fe6bfdd03c97437e</t>
+          <t>1f09f70b89f7411d</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -675,10 +678,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>100</v>
+        <v>7616</v>
       </c>
       <c r="D9" t="n">
-        <v>44.52999877929688</v>
+        <v>57.66999816894531</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -686,7 +689,7 @@
         </is>
       </c>
       <c r="F9" s="1" t="n">
-        <v>44114.71059133667</v>
+        <v>44118.65134244029</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -697,7 +700,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3a9b3c6862e14c5c</t>
+          <t>4df0216bb3c94108</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -706,10 +709,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>100</v>
+        <v>3508</v>
       </c>
       <c r="D10" t="n">
-        <v>46.72999954223633</v>
+        <v>57</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -717,7 +720,7 @@
         </is>
       </c>
       <c r="F10" s="1" t="n">
-        <v>44114.71059169224</v>
+        <v>44118.65138471327</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -728,7 +731,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3a9b3c6862e14c5c</t>
+          <t>4df0216bb3c94108</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -737,10 +740,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>100</v>
+        <v>7029</v>
       </c>
       <c r="D11" t="n">
-        <v>44.86000061035156</v>
+        <v>56.79999923706055</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -748,7 +751,7 @@
         </is>
       </c>
       <c r="F11" s="1" t="n">
-        <v>44114.71059245807</v>
+        <v>44118.65138514744</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -759,7 +762,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>808c2840b59a4e74</t>
+          <t>34b4c2fc29a0479b</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -768,10 +771,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>100</v>
+        <v>7669</v>
       </c>
       <c r="D12" t="n">
-        <v>48.84999847412109</v>
+        <v>48.20999908447266</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -779,7 +782,7 @@
         </is>
       </c>
       <c r="F12" s="1" t="n">
-        <v>44114.71059337844</v>
+        <v>44118.65138725648</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -790,7 +793,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>808c2840b59a4e74</t>
+          <t>34b4c2fc29a0479b</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -799,10 +802,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>100</v>
+        <v>7616</v>
       </c>
       <c r="D13" t="n">
-        <v>47.72999954223633</v>
+        <v>57.66999816894531</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -810,7 +813,7 @@
         </is>
       </c>
       <c r="F13" s="1" t="n">
-        <v>44114.71059397457</v>
+        <v>44118.65139028447</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -821,7 +824,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1385b59e769349a2</t>
+          <t>c0fd7d98101547ef</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -830,10 +833,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>100</v>
+        <v>3508</v>
       </c>
       <c r="D14" t="n">
-        <v>51.2599983215332</v>
+        <v>57</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -841,7 +844,7 @@
         </is>
       </c>
       <c r="F14" s="1" t="n">
-        <v>44114.71059455934</v>
+        <v>44118.65273973684</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -852,7 +855,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1385b59e769349a2</t>
+          <t>c0fd7d98101547ef</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -861,10 +864,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>100</v>
+        <v>7029</v>
       </c>
       <c r="D15" t="n">
-        <v>52.29999923706055</v>
+        <v>56.79999923706055</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -872,7 +875,7 @@
         </is>
       </c>
       <c r="F15" s="1" t="n">
-        <v>44114.71059516617</v>
+        <v>44118.65274018019</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -883,7 +886,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>d74ccd4045c34aea</t>
+          <t>e8f479461a134fbf</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -892,10 +895,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>100</v>
+        <v>7669</v>
       </c>
       <c r="D16" t="n">
-        <v>53</v>
+        <v>48.20999908447266</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -903,7 +906,7 @@
         </is>
       </c>
       <c r="F16" s="1" t="n">
-        <v>44114.71059552408</v>
+        <v>44118.65274213132</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -914,7 +917,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>d74ccd4045c34aea</t>
+          <t>e8f479461a134fbf</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -923,10 +926,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>100</v>
+        <v>7616</v>
       </c>
       <c r="D17" t="n">
-        <v>55.65999984741211</v>
+        <v>57.66999816894531</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -934,18 +937,18 @@
         </is>
       </c>
       <c r="F17" s="1" t="n">
-        <v>44114.7105960706</v>
+        <v>44118.6527439853</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Stop Gain</t>
+          <t>SuperTrend</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>e40167ef23c64d2c</t>
+          <t>39b08477cded4047</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -954,10 +957,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>100</v>
+        <v>3508</v>
       </c>
       <c r="D18" t="n">
-        <v>61.36999893188477</v>
+        <v>57</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -965,7 +968,7 @@
         </is>
       </c>
       <c r="F18" s="1" t="n">
-        <v>44114.71059725825</v>
+        <v>44118.65276613503</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -976,7 +979,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>e40167ef23c64d2c</t>
+          <t>39b08477cded4047</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -985,10 +988,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>100</v>
+        <v>7029</v>
       </c>
       <c r="D19" t="n">
-        <v>60.45000076293945</v>
+        <v>56.79999923706055</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -996,7 +999,7 @@
         </is>
       </c>
       <c r="F19" s="1" t="n">
-        <v>44114.7105985213</v>
+        <v>44118.65276663089</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1007,7 +1010,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>0a655168ed7e4600</t>
+          <t>724fb0f9cffb4313</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1016,10 +1019,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>100</v>
+        <v>7669</v>
       </c>
       <c r="D20" t="n">
-        <v>63.06000137329102</v>
+        <v>48.20999908447266</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1027,7 +1030,7 @@
         </is>
       </c>
       <c r="F20" s="1" t="n">
-        <v>44114.71059892229</v>
+        <v>44118.65276830075</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1038,7 +1041,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>0a655168ed7e4600</t>
+          <t>724fb0f9cffb4313</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1047,10 +1050,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>100</v>
+        <v>7616</v>
       </c>
       <c r="D21" t="n">
-        <v>61.61999893188477</v>
+        <v>57.66999816894531</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1058,18 +1061,18 @@
         </is>
       </c>
       <c r="F21" s="1" t="n">
-        <v>44114.7105999342</v>
+        <v>44118.65277023739</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Stop Loss</t>
+          <t>SuperTrend</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0c34be4f5844420e</t>
+          <t>b2af2d554ad24cd1</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1078,10 +1081,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>100</v>
+        <v>3309</v>
       </c>
       <c r="D22" t="n">
-        <v>61.95000076293945</v>
+        <v>60.43999862670898</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1089,7 +1092,7 @@
         </is>
       </c>
       <c r="F22" s="1" t="n">
-        <v>44114.71060059311</v>
+        <v>44118.65306836094</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1100,7 +1103,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>0c34be4f5844420e</t>
+          <t>b2af2d554ad24cd1</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1109,10 +1112,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>100</v>
+        <v>6594</v>
       </c>
       <c r="D23" t="n">
-        <v>60.97000122070312</v>
+        <v>60.88000106811523</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1120,7 +1123,7 @@
         </is>
       </c>
       <c r="F23" s="1" t="n">
-        <v>44114.71060132479</v>
+        <v>44118.65306919401</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1131,7 +1134,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>e530c1d9ee754911</t>
+          <t>4b2ece93a34d4ce2</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1140,10 +1143,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>100</v>
+        <v>6489</v>
       </c>
       <c r="D24" t="n">
-        <v>60.16999816894531</v>
+        <v>62.40999984741211</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1151,7 +1154,7 @@
         </is>
       </c>
       <c r="F24" s="1" t="n">
-        <v>44114.71060202949</v>
+        <v>44118.65306984598</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1162,7 +1165,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>f3e9fe9e220c4a5d</t>
+          <t>4b2ece93a34d4ce2</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1171,18 +1174,18 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>100</v>
+        <v>6533</v>
       </c>
       <c r="D25" t="n">
-        <v>41.5099983215332</v>
+        <v>60.06999969482422</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="F25" s="1" t="n">
-        <v>44114.71217288166</v>
+        <v>44118.65307032052</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1193,7 +1196,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>f3e9fe9e220c4a5d</t>
+          <t>d12c7f7c22a146e5</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1202,18 +1205,18 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>100</v>
+        <v>6797</v>
       </c>
       <c r="D26" t="n">
-        <v>38.65000152587891</v>
+        <v>57.66999816894531</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="F26" s="1" t="n">
-        <v>44114.71217348112</v>
+        <v>44118.65307089727</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1224,19 +1227,19 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>f919ff8089a844fc</t>
+          <t>7a50d4f9323b4d82</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>VALE3.SA</t>
+          <t>JBSS3.SA</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>100</v>
+        <v>8281</v>
       </c>
       <c r="D27" t="n">
-        <v>37.63999938964844</v>
+        <v>24.14999961853027</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1244,7 +1247,7 @@
         </is>
       </c>
       <c r="F27" s="1" t="n">
-        <v>44114.71217382962</v>
+        <v>44118.65501497019</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1255,19 +1258,19 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>f919ff8089a844fc</t>
+          <t>7a50d4f9323b4d82</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>VALE3.SA</t>
+          <t>JBSS3.SA</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>100</v>
+        <v>17497</v>
       </c>
       <c r="D28" t="n">
-        <v>40.84999847412109</v>
+        <v>21.70000076293945</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1275,7 +1278,7 @@
         </is>
       </c>
       <c r="F28" s="1" t="n">
-        <v>44114.71217445798</v>
+        <v>44118.65501578647</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1286,19 +1289,19 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2f047752d28f4535</t>
+          <t>33f7403a8dd14392</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>VALE3.SA</t>
+          <t>JBSS3.SA</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>100</v>
+        <v>17528</v>
       </c>
       <c r="D29" t="n">
-        <v>43.22000122070312</v>
+        <v>24.05999946594238</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1306,7 +1309,7 @@
         </is>
       </c>
       <c r="F29" s="1" t="n">
-        <v>44114.71217515453</v>
+        <v>44118.65501635649</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1317,19 +1320,19 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2f047752d28f4535</t>
+          <t>33f7403a8dd14392</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>VALE3.SA</t>
+          <t>JBSS3.SA</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>100</v>
+        <v>18006</v>
       </c>
       <c r="D30" t="n">
-        <v>43.36999893188477</v>
+        <v>20.6299991607666</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1337,7 +1340,7 @@
         </is>
       </c>
       <c r="F30" s="1" t="n">
-        <v>44114.71217639907</v>
+        <v>44118.65501690152</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1348,19 +1351,19 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>b797ba1e42584747</t>
+          <t>9614103fdc654063</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>VALE3.SA</t>
+          <t>PETR4.SA</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>100</v>
+        <v>8635</v>
       </c>
       <c r="D31" t="n">
-        <v>44.56999969482422</v>
+        <v>23.15999984741211</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1368,7 +1371,7 @@
         </is>
       </c>
       <c r="F31" s="1" t="n">
-        <v>44114.71217724911</v>
+        <v>44118.6553372558</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1379,19 +1382,19 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>b797ba1e42584747</t>
+          <t>9614103fdc654063</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>VALE3.SA</t>
+          <t>PETR4.SA</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>100</v>
+        <v>18176</v>
       </c>
       <c r="D32" t="n">
-        <v>44.52999877929688</v>
+        <v>20.95999908447266</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1399,7 +1402,7 @@
         </is>
       </c>
       <c r="F32" s="1" t="n">
-        <v>44114.71217810937</v>
+        <v>44118.65533872744</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1410,19 +1413,19 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>52074d0c0aaf486b</t>
+          <t>d36e8858f10c4311</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>VALE3.SA</t>
+          <t>BTC-USD</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="D33" t="n">
-        <v>46.72999954223633</v>
+        <v>8825.34375</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1430,7 +1433,7 @@
         </is>
       </c>
       <c r="F33" s="1" t="n">
-        <v>44114.71217916609</v>
+        <v>44119.37602037903</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1441,19 +1444,19 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>52074d0c0aaf486b</t>
+          <t>d36e8858f10c4311</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>VALE3.SA</t>
+          <t>BTC-USD</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="D34" t="n">
-        <v>44.86000061035156</v>
+        <v>9338.2900390625</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1461,7 +1464,7 @@
         </is>
       </c>
       <c r="F34" s="1" t="n">
-        <v>44114.71217994022</v>
+        <v>44119.3760226541</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1472,19 +1475,19 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ebc6a0f42dc04c69</t>
+          <t>0f746ebc53734f93</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>VALE3.SA</t>
+          <t>BTC-USD</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="D35" t="n">
-        <v>48.84999847412109</v>
+        <v>7273.64404296875</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1492,7 +1495,7 @@
         </is>
       </c>
       <c r="F35" s="1" t="n">
-        <v>44114.71218100667</v>
+        <v>44119.3760255273</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1503,19 +1506,19 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ebc6a0f42dc04c69</t>
+          <t>0f746ebc53734f93</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>VALE3.SA</t>
+          <t>BTC-USD</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D36" t="n">
-        <v>47.72999954223633</v>
+        <v>8610.3857421875</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1523,7 +1526,7 @@
         </is>
       </c>
       <c r="F36" s="1" t="n">
-        <v>44114.7121814565</v>
+        <v>44119.37602710359</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1534,19 +1537,19 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>7c43b4b8a6fd4d4b</t>
+          <t>a9705ac4a4ee451a</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>VALE3.SA</t>
+          <t>BTC-USD</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="D37" t="n">
-        <v>51.2599983215332</v>
+        <v>10162.9736328125</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1554,7 +1557,7 @@
         </is>
       </c>
       <c r="F37" s="1" t="n">
-        <v>44114.71218212508</v>
+        <v>44119.3760286466</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1565,19 +1568,19 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>7c43b4b8a6fd4d4b</t>
+          <t>a9705ac4a4ee451a</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>VALE3.SA</t>
+          <t>BTC-USD</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="D38" t="n">
-        <v>52.29999923706055</v>
+        <v>10230.365234375</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1585,7 +1588,7 @@
         </is>
       </c>
       <c r="F38" s="1" t="n">
-        <v>44114.71218268117</v>
+        <v>44119.37603354359</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1596,19 +1599,19 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>6d6ee63d7c8e4f14</t>
+          <t>8c551e04712e4d62</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>VALE3.SA</t>
+          <t>BTC-USD</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="D39" t="n">
-        <v>53</v>
+        <v>11296.08203125</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1616,7 +1619,7 @@
         </is>
       </c>
       <c r="F39" s="1" t="n">
-        <v>44114.71218352053</v>
+        <v>44119.37603560452</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1627,58 +1630,58 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>6d6ee63d7c8e4f14</t>
+          <t>e54672abe8e74e10</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>VALE3.SA</t>
+          <t>BTC-USD</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="D40" t="n">
-        <v>55.65999984741211</v>
+        <v>10622.8271484375</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="F40" s="1" t="n">
-        <v>44114.71218438119</v>
+        <v>44119.37649859814</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Stop Gain</t>
+          <t>SuperTrend</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>997b2625c4db4597</t>
+          <t>e54672abe8e74e10</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>VALE3.SA</t>
+          <t>BTC-USD</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="D41" t="n">
-        <v>61.36999893188477</v>
+        <v>10700.453125</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="F41" s="1" t="n">
-        <v>44114.71218503619</v>
+        <v>44119.37650046582</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1689,27 +1692,27 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>997b2625c4db4597</t>
+          <t>1f63442b800c4730</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>VALE3.SA</t>
+          <t>BTC-USD</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="D42" t="n">
-        <v>60.45000076293945</v>
+        <v>10739.158203125</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="F42" s="1" t="n">
-        <v>44114.71218695342</v>
+        <v>44119.37650280005</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1720,27 +1723,27 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>e4546bc10cd54e7f</t>
+          <t>1f63442b800c4730</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>VALE3.SA</t>
+          <t>BTC-USD</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="D43" t="n">
-        <v>63.06000137329102</v>
+        <v>11259.6943359375</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="F43" s="1" t="n">
-        <v>44114.71218792358</v>
+        <v>44119.37650674861</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1751,835 +1754,60 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>e4546bc10cd54e7f</t>
+          <t>99fa74315da94c7e</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>VALE3.SA</t>
+          <t>BTC-USD</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="D44" t="n">
-        <v>61.61999893188477</v>
+        <v>11489.5810546875</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="F44" s="1" t="n">
-        <v>44114.71218883649</v>
+        <v>44119.37650754516</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Stop Loss</t>
+          <t>SuperTrend</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>e58800a21fa24a73</t>
+          <t>99fa74315da94c7e</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>VALE3.SA</t>
+          <t>BTC-USD</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="D45" t="n">
-        <v>61.95000076293945</v>
+        <v>11498.265625</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="F45" s="1" t="n">
-        <v>44114.71218972391</v>
+        <v>44119.37650838569</v>
       </c>
       <c r="G45" t="inlineStr">
-        <is>
-          <t>SuperTrend</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>e58800a21fa24a73</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>VALE3.SA</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>100</v>
-      </c>
-      <c r="D46" t="n">
-        <v>60.97000122070312</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="F46" s="1" t="n">
-        <v>44114.71219053536</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>SuperTrend</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>e9910295f08040bd</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>VALE3.SA</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>100</v>
-      </c>
-      <c r="D47" t="n">
-        <v>60.16999816894531</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="F47" s="1" t="n">
-        <v>44114.71219149429</v>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>SuperTrend</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>9e0d9157100e495f</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>VALE3.SA</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>100</v>
-      </c>
-      <c r="D48" t="n">
-        <v>41.5099983215332</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="F48" s="1" t="n">
-        <v>44114.71300451556</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>SuperTrend</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>9e0d9157100e495f</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>VALE3.SA</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>100</v>
-      </c>
-      <c r="D49" t="n">
-        <v>38.65000152587891</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="F49" s="1" t="n">
-        <v>44114.71300509843</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>SuperTrend</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>20b330659957451a</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>VALE3.SA</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>100</v>
-      </c>
-      <c r="D50" t="n">
-        <v>37.63999938964844</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="F50" s="1" t="n">
-        <v>44114.71300566728</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>SuperTrend</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>20b330659957451a</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>VALE3.SA</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>100</v>
-      </c>
-      <c r="D51" t="n">
-        <v>40.84999847412109</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="F51" s="1" t="n">
-        <v>44114.71300629387</v>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>SuperTrend</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>fdec181389824af1</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>VALE3.SA</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>100</v>
-      </c>
-      <c r="D52" t="n">
-        <v>43.22000122070312</v>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="F52" s="1" t="n">
-        <v>44114.71300705516</v>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>SuperTrend</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>fdec181389824af1</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>VALE3.SA</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>100</v>
-      </c>
-      <c r="D53" t="n">
-        <v>43.36999893188477</v>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="F53" s="1" t="n">
-        <v>44114.71300797126</v>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>SuperTrend</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>8b01449eb73d41c4</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>VALE3.SA</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>100</v>
-      </c>
-      <c r="D54" t="n">
-        <v>44.56999969482422</v>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="F54" s="1" t="n">
-        <v>44114.71300850586</v>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>SuperTrend</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>8b01449eb73d41c4</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>VALE3.SA</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>100</v>
-      </c>
-      <c r="D55" t="n">
-        <v>44.52999877929688</v>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="F55" s="1" t="n">
-        <v>44114.71300946145</v>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>SuperTrend</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>adc192f61a044be8</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>VALE3.SA</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>100</v>
-      </c>
-      <c r="D56" t="n">
-        <v>46.72999954223633</v>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="F56" s="1" t="n">
-        <v>44114.71301031792</v>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>SuperTrend</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>adc192f61a044be8</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>VALE3.SA</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>100</v>
-      </c>
-      <c r="D57" t="n">
-        <v>44.86000061035156</v>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="F57" s="1" t="n">
-        <v>44114.71301093662</v>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>SuperTrend</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>31ad94b813da4a2d</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>VALE3.SA</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>100</v>
-      </c>
-      <c r="D58" t="n">
-        <v>48.84999847412109</v>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="F58" s="1" t="n">
-        <v>44114.71301193661</v>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>SuperTrend</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>31ad94b813da4a2d</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>VALE3.SA</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>100</v>
-      </c>
-      <c r="D59" t="n">
-        <v>47.72999954223633</v>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="F59" s="1" t="n">
-        <v>44114.71301265575</v>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>SuperTrend</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>859cccb3e88648c3</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>VALE3.SA</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>100</v>
-      </c>
-      <c r="D60" t="n">
-        <v>51.2599983215332</v>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="F60" s="1" t="n">
-        <v>44114.71301359759</v>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>SuperTrend</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>859cccb3e88648c3</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>VALE3.SA</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>100</v>
-      </c>
-      <c r="D61" t="n">
-        <v>52.29999923706055</v>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="F61" s="1" t="n">
-        <v>44114.7130143828</v>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>SuperTrend</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>98e730bfc4924116</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>VALE3.SA</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>100</v>
-      </c>
-      <c r="D62" t="n">
-        <v>53</v>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="F62" s="1" t="n">
-        <v>44114.71301514409</v>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>SuperTrend</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>98e730bfc4924116</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>VALE3.SA</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>100</v>
-      </c>
-      <c r="D63" t="n">
-        <v>55.65999984741211</v>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="F63" s="1" t="n">
-        <v>44114.71301586432</v>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>Stop Gain</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>f58c0028eae24684</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>VALE3.SA</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>100</v>
-      </c>
-      <c r="D64" t="n">
-        <v>61.36999893188477</v>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="F64" s="1" t="n">
-        <v>44114.71301722299</v>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>SuperTrend</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>f58c0028eae24684</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>VALE3.SA</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>100</v>
-      </c>
-      <c r="D65" t="n">
-        <v>60.45000076293945</v>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="F65" s="1" t="n">
-        <v>44114.71301794325</v>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>SuperTrend</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>6c86db1ef28048c9</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>VALE3.SA</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>100</v>
-      </c>
-      <c r="D66" t="n">
-        <v>63.06000137329102</v>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="F66" s="1" t="n">
-        <v>44114.71301861812</v>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>SuperTrend</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>6c86db1ef28048c9</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>VALE3.SA</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>100</v>
-      </c>
-      <c r="D67" t="n">
-        <v>61.61999893188477</v>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="F67" s="1" t="n">
-        <v>44114.71301944878</v>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>Stop Loss</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>5581facdf5064a83</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>VALE3.SA</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>100</v>
-      </c>
-      <c r="D68" t="n">
-        <v>61.95000076293945</v>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="F68" s="1" t="n">
-        <v>44114.71302014609</v>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>SuperTrend</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>5581facdf5064a83</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>VALE3.SA</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>100</v>
-      </c>
-      <c r="D69" t="n">
-        <v>60.97000122070312</v>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="F69" s="1" t="n">
-        <v>44114.71302083629</v>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>SuperTrend</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>2646a7901862426c</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>VALE3.SA</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>100</v>
-      </c>
-      <c r="D70" t="n">
-        <v>60.16999816894531</v>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="F70" s="1" t="n">
-        <v>44114.71302161478</v>
-      </c>
-      <c r="G70" t="inlineStr">
         <is>
           <t>SuperTrend</t>
         </is>
